--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulQuantum\Documents\The-Path-to-Multi-GPU-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC72D1D4-CB80-4AAD-AF21-96E3DCC4C299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAA6F17-48E1-447C-BB8A-D85AC2A5D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E8EEAC2-6DB4-4A42-9E12-7C8502FD2ADA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Action Space Size</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Multi GPU Time (4 GPUs)?</t>
+  </si>
+  <si>
+    <t>Problem Size</t>
   </si>
 </sst>
 </file>
@@ -95,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E6877B-3A0C-4402-BF83-A640C7B64AE2}">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B2:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,13 +427,15 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -443,19 +449,22 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1024</v>
       </c>
@@ -465,8 +474,12 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <f>D4*B4*C4^2</f>
+        <v>41943040</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1024</v>
       </c>
@@ -474,10 +487,14 @@
         <v>64</v>
       </c>
       <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G68" si="0">D5*B5*C5^2</f>
+        <v>209715200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1024</v>
       </c>
@@ -485,10 +502,14 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>419430400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1024</v>
       </c>
@@ -498,8 +519,12 @@
       <c r="D7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>167772160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1024</v>
       </c>
@@ -507,10 +532,14 @@
         <v>128</v>
       </c>
       <c r="D8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>838860800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1024</v>
       </c>
@@ -518,10 +547,14 @@
         <v>128</v>
       </c>
       <c r="D9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1677721600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1024</v>
       </c>
@@ -531,8 +564,12 @@
       <c r="D10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>671088640</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1024</v>
       </c>
@@ -540,10 +577,14 @@
         <v>256</v>
       </c>
       <c r="D11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>3355443200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1024</v>
       </c>
@@ -551,10 +592,14 @@
         <v>256</v>
       </c>
       <c r="D12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>6710886400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1024</v>
       </c>
@@ -564,8 +609,12 @@
       <c r="D13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>2684354560</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1024</v>
       </c>
@@ -573,10 +622,14 @@
         <v>512</v>
       </c>
       <c r="D14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>13421772800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1024</v>
       </c>
@@ -584,10 +637,14 @@
         <v>512</v>
       </c>
       <c r="D15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>26843545600</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1024</v>
       </c>
@@ -597,8 +654,12 @@
       <c r="D16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>10737418240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1024</v>
       </c>
@@ -606,10 +667,14 @@
         <v>1024</v>
       </c>
       <c r="D17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>53687091200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1024</v>
       </c>
@@ -617,10 +682,17 @@
         <v>1024</v>
       </c>
       <c r="D18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>107374182400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1024</v>
       </c>
@@ -630,8 +702,12 @@
       <c r="D20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>41943040</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2048</v>
       </c>
@@ -639,10 +715,14 @@
         <v>64</v>
       </c>
       <c r="D21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>83886080</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4096</v>
       </c>
@@ -650,10 +730,14 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>167772160</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>B22*2</f>
         <v>8192</v>
@@ -664,34 +748,46 @@
       <c r="D23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>335544320</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" ref="B24:B28" si="0">B23*2</f>
+        <f t="shared" ref="B24:B28" si="1">B23*2</f>
         <v>16384</v>
       </c>
       <c r="C24">
         <v>64</v>
       </c>
       <c r="D24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>671088640</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32768</v>
       </c>
       <c r="C25">
         <v>64</v>
       </c>
       <c r="D25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>1342177280</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65536</v>
       </c>
       <c r="C26">
@@ -700,122 +796,953 @@
       <c r="D26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>2684354560</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131072</v>
       </c>
       <c r="C27">
         <v>64</v>
       </c>
       <c r="D27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>5368709120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262144</v>
       </c>
       <c r="C28">
         <v>64</v>
       </c>
       <c r="D28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>10737418240</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1024</v>
       </c>
       <c r="C30">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>209715200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2048</v>
       </c>
       <c r="C31">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>419430400</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>4096</v>
       </c>
       <c r="C32">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>838860800</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32*2</f>
         <v>8192</v>
       </c>
       <c r="C33">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>1677721600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" ref="B34:B37" si="1">B33*2</f>
+        <f t="shared" ref="B34:B38" si="2">B33*2</f>
         <v>16384</v>
       </c>
       <c r="C34">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>3355443200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32768</v>
       </c>
       <c r="C35">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>6710886400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="C36">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>13421772800</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131072</v>
       </c>
       <c r="C37">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>26843545600</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="C38">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>53687091200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1024</v>
+      </c>
+      <c r="C40">
+        <v>64</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>419430400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2048</v>
+      </c>
+      <c r="C41">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>838860800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>4096</v>
+      </c>
+      <c r="C42">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>1677721600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>B42*2</f>
+        <v>8192</v>
+      </c>
+      <c r="C43">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>3355443200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" ref="B44:B48" si="3">B43*2</f>
+        <v>16384</v>
+      </c>
+      <c r="C44">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>6710886400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>32768</v>
+      </c>
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>13421772800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>65536</v>
+      </c>
+      <c r="C46">
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>26843545600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>131072</v>
+      </c>
+      <c r="C47">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>53687091200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+      <c r="C48">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>107374182400</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1024</v>
+      </c>
+      <c r="C50">
+        <v>128</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>167772160</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2048</v>
+      </c>
+      <c r="C51">
+        <v>128</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>335544320</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4096</v>
+      </c>
+      <c r="C52">
+        <v>128</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>671088640</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>B52*2</f>
+        <v>8192</v>
+      </c>
+      <c r="C53">
+        <v>128</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>1342177280</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" ref="B54:B57" si="4">B53*2</f>
+        <v>16384</v>
+      </c>
+      <c r="C54">
+        <v>128</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>2684354560</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>32768</v>
+      </c>
+      <c r="C55">
+        <v>128</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>5368709120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>65536</v>
+      </c>
+      <c r="C56">
+        <v>128</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>10737418240</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="C57">
+        <v>128</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>21474836480</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1024</v>
+      </c>
+      <c r="C59">
+        <v>128</v>
+      </c>
+      <c r="D59">
+        <v>50</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>838860800</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2048</v>
+      </c>
+      <c r="C60">
+        <v>128</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>1677721600</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4096</v>
+      </c>
+      <c r="C61">
+        <v>128</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>3355443200</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>B61*2</f>
+        <v>8192</v>
+      </c>
+      <c r="C62">
+        <v>128</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>6710886400</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" ref="B63:B66" si="5">B62*2</f>
+        <v>16384</v>
+      </c>
+      <c r="C63">
+        <v>128</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>13421772800</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+      <c r="C64">
+        <v>128</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>26843545600</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="C65">
+        <v>128</v>
+      </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>53687091200</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
+      <c r="C66">
+        <v>128</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>107374182400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1024</v>
+      </c>
+      <c r="C68">
+        <v>128</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="0"/>
+        <v>1677721600</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>2048</v>
+      </c>
+      <c r="C69">
+        <v>128</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ref="G69:G93" si="6">D69*B69*C69^2</f>
+        <v>3355443200</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>4096</v>
+      </c>
+      <c r="C70">
+        <v>128</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="6"/>
+        <v>6710886400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>B70*2</f>
+        <v>8192</v>
+      </c>
+      <c r="C71">
+        <v>128</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="6"/>
+        <v>13421772800</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" ref="B72:B75" si="7">B71*2</f>
+        <v>16384</v>
+      </c>
+      <c r="C72">
+        <v>128</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="6"/>
+        <v>26843545600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>32768</v>
+      </c>
+      <c r="C73">
+        <v>128</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="6"/>
+        <v>53687091200</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>65536</v>
+      </c>
+      <c r="C74">
+        <v>128</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="6"/>
+        <v>107374182400</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>131072</v>
+      </c>
+      <c r="C75">
+        <v>128</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="6"/>
+        <v>214748364800</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1024</v>
+      </c>
+      <c r="C77">
+        <v>256</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="6"/>
+        <v>671088640</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2048</v>
+      </c>
+      <c r="C78">
+        <v>256</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="6"/>
+        <v>1342177280</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>4096</v>
+      </c>
+      <c r="C79">
+        <v>256</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="6"/>
+        <v>2684354560</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f>B79*2</f>
+        <v>8192</v>
+      </c>
+      <c r="C80">
+        <v>256</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="6"/>
+        <v>5368709120</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" ref="B81" si="8">B80*2</f>
+        <v>16384</v>
+      </c>
+      <c r="C81">
+        <v>256</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="6"/>
+        <v>10737418240</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1024</v>
+      </c>
+      <c r="C83">
+        <v>256</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="6"/>
+        <v>3355443200</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>2048</v>
+      </c>
+      <c r="C84">
+        <v>256</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="6"/>
+        <v>6710886400</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>4096</v>
+      </c>
+      <c r="C85">
+        <v>256</v>
+      </c>
+      <c r="D85">
+        <v>50</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="6"/>
+        <v>13421772800</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f>B85*2</f>
+        <v>8192</v>
+      </c>
+      <c r="C86">
+        <v>256</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="6"/>
+        <v>26843545600</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" ref="B87" si="9">B86*2</f>
+        <v>16384</v>
+      </c>
+      <c r="C87">
+        <v>256</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="6"/>
+        <v>53687091200</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1024</v>
+      </c>
+      <c r="C89">
+        <v>256</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="6"/>
+        <v>6710886400</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2048</v>
+      </c>
+      <c r="C90">
+        <v>256</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="6"/>
+        <v>13421772800</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>4096</v>
+      </c>
+      <c r="C91">
+        <v>256</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="6"/>
+        <v>26843545600</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f>B91*2</f>
+        <v>8192</v>
+      </c>
+      <c r="C92">
+        <v>256</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="6"/>
+        <v>53687091200</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" ref="B93" si="10">B92*2</f>
+        <v>16384</v>
+      </c>
+      <c r="C93">
+        <v>256</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="6"/>
+        <v>107374182400</v>
       </c>
     </row>
   </sheetData>
